--- a/listado de items Siesa.xlsx
+++ b/listado de items Siesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\formulario_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FBC13C-ADA4-4159-A94E-4501F4AA4F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF94D6C-D3F0-4873-8F92-EBCCF3CD74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17579,13 +17579,13 @@
     <t>REF</t>
   </si>
   <si>
-    <t>DESCRPCION</t>
-  </si>
-  <si>
     <t>ID Item</t>
   </si>
   <si>
     <t>Unidad</t>
+  </si>
+  <si>
+    <t>Descripción Item</t>
   </si>
 </sst>
 </file>
@@ -18003,7 +18003,7 @@
   <dimension ref="A1:D2938"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -18016,16 +18016,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5846</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.15">
